--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il13-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il13-Il4ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Il13</t>
+  </si>
+  <si>
+    <t>Il4ra</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il13</t>
-  </si>
-  <si>
-    <t>Il4ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.687967</v>
       </c>
       <c r="I2">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.68876666666667</v>
+        <v>24.19332433333333</v>
       </c>
       <c r="N2">
-        <v>89.0663</v>
+        <v>72.579973</v>
       </c>
       <c r="O2">
-        <v>0.1908084151656295</v>
+        <v>0.1517253643953664</v>
       </c>
       <c r="P2">
-        <v>0.1941968737840524</v>
+        <v>0.1535091025337402</v>
       </c>
       <c r="Q2">
-        <v>6.808297245788888</v>
+        <v>5.548069587210111</v>
       </c>
       <c r="R2">
-        <v>61.2746752121</v>
+        <v>49.93262628489099</v>
       </c>
       <c r="S2">
-        <v>0.1501510925411124</v>
+        <v>0.1517253643953664</v>
       </c>
       <c r="T2">
-        <v>0.1645014949899997</v>
+        <v>0.1535091025337402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.687967</v>
       </c>
       <c r="I3">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>115.798042</v>
       </c>
       <c r="O3">
-        <v>0.2480763304785649</v>
+        <v>0.2420709100941653</v>
       </c>
       <c r="P3">
-        <v>0.2524817775827041</v>
+        <v>0.2449167830716105</v>
       </c>
       <c r="Q3">
         <v>8.851692395623777</v>
@@ -638,10 +638,10 @@
         <v>79.66523156061399</v>
       </c>
       <c r="S3">
-        <v>0.1952164008207552</v>
+        <v>0.2420709100941653</v>
       </c>
       <c r="T3">
-        <v>0.213873833603897</v>
+        <v>0.2449167830716105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.687967</v>
       </c>
       <c r="I4">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.61555133333334</v>
+        <v>48.379696</v>
       </c>
       <c r="N4">
-        <v>103.846654</v>
+        <v>145.139088</v>
       </c>
       <c r="O4">
-        <v>0.2224726464442049</v>
+        <v>0.303407126023747</v>
       </c>
       <c r="P4">
-        <v>0.2264234122191464</v>
+        <v>0.3069740896906305</v>
       </c>
       <c r="Q4">
-        <v>7.938119001379778</v>
+        <v>11.09454477267733</v>
       </c>
       <c r="R4">
-        <v>71.443071012418</v>
+        <v>99.85090295409601</v>
       </c>
       <c r="S4">
-        <v>0.1750683317353352</v>
+        <v>0.303407126023747</v>
       </c>
       <c r="T4">
-        <v>0.1918001514906225</v>
+        <v>0.3069740896906305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.687967</v>
       </c>
       <c r="I5">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.144714</v>
+        <v>5.558474</v>
       </c>
       <c r="N5">
-        <v>16.289428</v>
+        <v>11.116948</v>
       </c>
       <c r="O5">
-        <v>0.05234572347736401</v>
+        <v>0.03485926454390539</v>
       </c>
       <c r="P5">
-        <v>0.03551686769665304</v>
+        <v>0.02351272175858012</v>
       </c>
       <c r="Q5">
-        <v>1.867764818812667</v>
+        <v>1.274682227452667</v>
       </c>
       <c r="R5">
-        <v>11.206588912876</v>
+        <v>7.648093364716001</v>
       </c>
       <c r="S5">
-        <v>0.04119193361130621</v>
+        <v>0.03485926454390539</v>
       </c>
       <c r="T5">
-        <v>0.03008584906448298</v>
+        <v>0.02351272175858012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.687967</v>
       </c>
       <c r="I6">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.54626066666666</v>
+        <v>42.72387066666667</v>
       </c>
       <c r="N6">
-        <v>133.638782</v>
+        <v>128.171612</v>
       </c>
       <c r="O6">
-        <v>0.2862968844342367</v>
+        <v>0.2679373349428157</v>
       </c>
       <c r="P6">
-        <v>0.2913810687174441</v>
+        <v>0.2710873029454388</v>
       </c>
       <c r="Q6">
-        <v>10.21545243735489</v>
+        <v>9.797537710311556</v>
       </c>
       <c r="R6">
-        <v>91.939071936194</v>
+        <v>88.177839392804</v>
       </c>
       <c r="S6">
-        <v>0.2252929460768388</v>
+        <v>0.2679373349428157</v>
       </c>
       <c r="T6">
-        <v>0.246824886939759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.062095</v>
-      </c>
-      <c r="H7">
-        <v>0.12419</v>
-      </c>
-      <c r="I7">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J7">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>29.68876666666667</v>
-      </c>
-      <c r="N7">
-        <v>89.0663</v>
-      </c>
-      <c r="O7">
-        <v>0.1908084151656295</v>
-      </c>
-      <c r="P7">
-        <v>0.1941968737840524</v>
-      </c>
-      <c r="Q7">
-        <v>1.843523966166667</v>
-      </c>
-      <c r="R7">
-        <v>11.061143797</v>
-      </c>
-      <c r="S7">
-        <v>0.04065732262451707</v>
-      </c>
-      <c r="T7">
-        <v>0.02969537879405271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.062095</v>
-      </c>
-      <c r="H8">
-        <v>0.12419</v>
-      </c>
-      <c r="I8">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J8">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>38.59934733333333</v>
-      </c>
-      <c r="N8">
-        <v>115.798042</v>
-      </c>
-      <c r="O8">
-        <v>0.2480763304785649</v>
-      </c>
-      <c r="P8">
-        <v>0.2524817775827041</v>
-      </c>
-      <c r="Q8">
-        <v>2.396826472663334</v>
-      </c>
-      <c r="R8">
-        <v>14.38095883598</v>
-      </c>
-      <c r="S8">
-        <v>0.05285992965780973</v>
-      </c>
-      <c r="T8">
-        <v>0.03860794397880708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.062095</v>
-      </c>
-      <c r="H9">
-        <v>0.12419</v>
-      </c>
-      <c r="I9">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J9">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>34.61555133333334</v>
-      </c>
-      <c r="N9">
-        <v>103.846654</v>
-      </c>
-      <c r="O9">
-        <v>0.2224726464442049</v>
-      </c>
-      <c r="P9">
-        <v>0.2264234122191464</v>
-      </c>
-      <c r="Q9">
-        <v>2.149452660043333</v>
-      </c>
-      <c r="R9">
-        <v>12.89671596026</v>
-      </c>
-      <c r="S9">
-        <v>0.04740431470886965</v>
-      </c>
-      <c r="T9">
-        <v>0.0346232607285239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.062095</v>
-      </c>
-      <c r="H10">
-        <v>0.12419</v>
-      </c>
-      <c r="I10">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J10">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.144714</v>
-      </c>
-      <c r="N10">
-        <v>16.289428</v>
-      </c>
-      <c r="O10">
-        <v>0.05234572347736401</v>
-      </c>
-      <c r="P10">
-        <v>0.03551686769665304</v>
-      </c>
-      <c r="Q10">
-        <v>0.5057460158300001</v>
-      </c>
-      <c r="R10">
-        <v>2.02298406332</v>
-      </c>
-      <c r="S10">
-        <v>0.01115378986605779</v>
-      </c>
-      <c r="T10">
-        <v>0.005431018632170062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.062095</v>
-      </c>
-      <c r="H11">
-        <v>0.12419</v>
-      </c>
-      <c r="I11">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J11">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>44.54626066666666</v>
-      </c>
-      <c r="N11">
-        <v>133.638782</v>
-      </c>
-      <c r="O11">
-        <v>0.2862968844342367</v>
-      </c>
-      <c r="P11">
-        <v>0.2913810687174441</v>
-      </c>
-      <c r="Q11">
-        <v>2.766100056096667</v>
-      </c>
-      <c r="R11">
-        <v>16.59660033658</v>
-      </c>
-      <c r="S11">
-        <v>0.06100393835739785</v>
-      </c>
-      <c r="T11">
-        <v>0.04455618177768508</v>
+        <v>0.2710873029454388</v>
       </c>
     </row>
   </sheetData>
